--- a/worktime.xlsx
+++ b/worktime.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
   <si>
     <t>روز</t>
   </si>
@@ -87,6 +87,36 @@
   </si>
   <si>
     <t>8:48'</t>
+  </si>
+  <si>
+    <t>99/12/9</t>
+  </si>
+  <si>
+    <t>99/12/10</t>
+  </si>
+  <si>
+    <t>99/12/11</t>
+  </si>
+  <si>
+    <t>99/12/12</t>
+  </si>
+  <si>
+    <t>99/12/13</t>
+  </si>
+  <si>
+    <t>99/12/16</t>
+  </si>
+  <si>
+    <t>99/12/17</t>
+  </si>
+  <si>
+    <t>99/12/18</t>
+  </si>
+  <si>
+    <t>99/12/19</t>
+  </si>
+  <si>
+    <t>99/12/20</t>
   </si>
 </sst>
 </file>
@@ -147,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -161,6 +191,9 @@
     </xf>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -568,7 +601,7 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D7" s="5">
-        <v>0.73611111111111116</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>20</v>
@@ -585,7 +618,7 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D8" s="5">
-        <v>0.73611111111111116</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>20</v>
@@ -602,7 +635,7 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D9" s="5">
-        <v>0.73611111111111116</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>20</v>
@@ -619,7 +652,7 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D10" s="5">
-        <v>0.73611111111111116</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>20</v>
@@ -636,9 +669,179 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D11" s="5">
-        <v>0.73611111111111116</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>20</v>
       </c>
     </row>

--- a/worktime.xlsx
+++ b/worktime.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="39">
   <si>
     <t>روز</t>
   </si>
@@ -117,6 +117,30 @@
   </si>
   <si>
     <t>99/12/20</t>
+  </si>
+  <si>
+    <t>99/12/23</t>
+  </si>
+  <si>
+    <t>99/12/24</t>
+  </si>
+  <si>
+    <t>99/12/25</t>
+  </si>
+  <si>
+    <t>99/12/26</t>
+  </si>
+  <si>
+    <t>99/12/27</t>
+  </si>
+  <si>
+    <t>99/12/30</t>
+  </si>
+  <si>
+    <t>مرخصی</t>
+  </si>
+  <si>
+    <t>8:28'</t>
   </si>
 </sst>
 </file>
@@ -150,7 +174,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -173,11 +197,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -194,6 +255,15 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -475,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -835,17 +905,115 @@
       <c r="B21" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="5">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="D21" s="5">
-        <v>0.73611111111111116</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>20</v>
+      <c r="C21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/worktime.xlsx
+++ b/worktime.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="52">
   <si>
     <t>روز</t>
   </si>
@@ -134,13 +134,52 @@
     <t>99/12/27</t>
   </si>
   <si>
-    <t>99/12/30</t>
-  </si>
-  <si>
     <t>مرخصی</t>
   </si>
   <si>
     <t>8:28'</t>
+  </si>
+  <si>
+    <t>1400/01/14</t>
+  </si>
+  <si>
+    <t>1400/01/15</t>
+  </si>
+  <si>
+    <t>1400/01/16</t>
+  </si>
+  <si>
+    <t>1400/01/17</t>
+  </si>
+  <si>
+    <t>1400/01/18</t>
+  </si>
+  <si>
+    <t>1400/01/21</t>
+  </si>
+  <si>
+    <t>1400/01/22</t>
+  </si>
+  <si>
+    <t>1400/01/23</t>
+  </si>
+  <si>
+    <t>1400/01/24</t>
+  </si>
+  <si>
+    <t>1400/01/25</t>
+  </si>
+  <si>
+    <t>1400/01/07</t>
+  </si>
+  <si>
+    <t>1400/01/08</t>
+  </si>
+  <si>
+    <t>1400/01/10</t>
+  </si>
+  <si>
+    <t>1400/01/11</t>
   </si>
 </sst>
 </file>
@@ -545,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:E22"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -906,7 +945,7 @@
         <v>30</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="9"/>
@@ -919,7 +958,7 @@
         <v>31</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="9"/>
@@ -938,7 +977,7 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.4">
@@ -955,7 +994,7 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.4">
@@ -972,7 +1011,7 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.4">
@@ -989,7 +1028,7 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.4">
@@ -997,7 +1036,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C27" s="5">
         <v>0.35416666666666669</v>
@@ -1006,7 +1045,228 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="A30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>38</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="A35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="A36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="A37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="A38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D38" s="5">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="A39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D40" s="5">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
